--- a/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 600-POS-POS3.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 600-POS-POS3.xlsx
@@ -19,7 +19,205 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="145">
+  <si>
+    <t>Signal_Value_3</t>
+  </si>
+  <si>
+    <t>Signal_Value_4</t>
+  </si>
+  <si>
+    <t>Signal_Value_5</t>
+  </si>
+  <si>
+    <t>Signal_Value_6</t>
+  </si>
+  <si>
+    <t>Signal_Value_7</t>
+  </si>
+  <si>
+    <t>Signal_Value_8</t>
+  </si>
+  <si>
+    <t>Signal_Value_9</t>
+  </si>
+  <si>
+    <t>Signal_Value_10</t>
+  </si>
+  <si>
+    <t>Signal_Value_11</t>
+  </si>
+  <si>
+    <t>Signal_Value_12</t>
+  </si>
+  <si>
+    <t>Signal_Value_13</t>
+  </si>
+  <si>
+    <t>Signal_Value_14</t>
+  </si>
+  <si>
+    <t>Signal_Value_15</t>
+  </si>
+  <si>
+    <t>Signal_Value_16</t>
+  </si>
+  <si>
+    <t>Signal_Value_17</t>
+  </si>
+  <si>
+    <t>Signal_Value_18</t>
+  </si>
+  <si>
+    <t>Signal_Value_19</t>
+  </si>
+  <si>
+    <t>Signal_Value_20</t>
+  </si>
+  <si>
+    <t>Signal_Value_21</t>
+  </si>
+  <si>
+    <t>Signal_Value_22</t>
+  </si>
+  <si>
+    <t>Signal_Value_23</t>
+  </si>
+  <si>
+    <t>Signal_Value_24</t>
+  </si>
+  <si>
+    <t>Signal_Value_25</t>
+  </si>
+  <si>
+    <t>Signal_Value_26</t>
+  </si>
+  <si>
+    <t>Signal_Value_27</t>
+  </si>
+  <si>
+    <t>Signal_Value_28</t>
+  </si>
+  <si>
+    <t>Signal_Value_29</t>
+  </si>
+  <si>
+    <t>Signal_Value_30</t>
+  </si>
+  <si>
+    <t>Signal_Value_31</t>
+  </si>
+  <si>
+    <t>Signal_Value_32</t>
+  </si>
+  <si>
+    <t>Signal_Value_33</t>
+  </si>
+  <si>
+    <t>Signal_Value_34</t>
+  </si>
+  <si>
+    <t>Signal_Value_35</t>
+  </si>
+  <si>
+    <t>Signal_Value_36</t>
+  </si>
+  <si>
+    <t>Signal_Value_37</t>
+  </si>
+  <si>
+    <t>Signal_Value_38</t>
+  </si>
+  <si>
+    <t>Signal_Value_39</t>
+  </si>
+  <si>
+    <t>Signal_Value_40</t>
+  </si>
+  <si>
+    <t>Signal_Value_41</t>
+  </si>
+  <si>
+    <t>Signal_Value_42</t>
+  </si>
+  <si>
+    <t>Signal_Value_43</t>
+  </si>
+  <si>
+    <t>Signal_Value_44</t>
+  </si>
+  <si>
+    <t>Signal_Value_45</t>
+  </si>
+  <si>
+    <t>Signal_Value_46</t>
+  </si>
+  <si>
+    <t>Signal_Value_47</t>
+  </si>
+  <si>
+    <t>Signal_Value_48</t>
+  </si>
+  <si>
+    <t>Signal_Value_49</t>
+  </si>
+  <si>
+    <t>Signal_Value_50</t>
+  </si>
+  <si>
+    <t>Signal_Value_51</t>
+  </si>
+  <si>
+    <t>Signal_Value_52</t>
+  </si>
+  <si>
+    <t>Signal_Value_53</t>
+  </si>
+  <si>
+    <t>Signal_Value_54</t>
+  </si>
+  <si>
+    <t>Signal_Value_55</t>
+  </si>
+  <si>
+    <t>Signal_Value_56</t>
+  </si>
+  <si>
+    <t>Signal_Value_57</t>
+  </si>
+  <si>
+    <t>Signal_Value_58</t>
+  </si>
+  <si>
+    <t>Signal_Value_59</t>
+  </si>
+  <si>
+    <t>Signal_Value_60</t>
+  </si>
+  <si>
+    <t>Signal_Value_61</t>
+  </si>
+  <si>
+    <t>Signal_Value_62</t>
+  </si>
+  <si>
+    <t>Signal_Value_63</t>
+  </si>
+  <si>
+    <t>Signal_Value_64</t>
+  </si>
+  <si>
+    <t>Signal_Value_65</t>
+  </si>
+  <si>
+    <t>Signal_Value_66</t>
+  </si>
+  <si>
+    <t>Signal_Value_67</t>
+  </si>
+  <si>
+    <t>Signal_Value_68</t>
+  </si>
   <si>
     <t>Signal_Value_69</t>
   </si>
@@ -252,10 +450,7 @@
     <t>Tread</t>
   </si>
   <si>
-    <t>11R22.5</t>
-  </si>
-  <si>
-    <t>702ZE-i</t>
+    <t>275-80R22.5</t>
   </si>
   <si>
     <t>Empty</t>
@@ -616,15 +811,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB6"/>
+  <dimension ref="A1:DP6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:54">
+    <row r="1" spans="1:120">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -785,10 +980,208 @@
       <c r="BB1" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
-    <row r="2" spans="1:54">
+    <row r="2" spans="1:120">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -797,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.02279270755401583</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.08688341772342469</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.0701207325302364</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -815,10 +1208,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.0340127742163276</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.01712429655911936</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -827,10 +1220,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.0135295633286168</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.07670994753268418</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -839,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.2605271606557154</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.03088872284899171</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -851,108 +1244,306 @@
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.02636442359878283</v>
       </c>
       <c r="W2">
-        <v>0.006998500362642747</v>
+        <v>0.02138080185827029</v>
       </c>
       <c r="X2">
-        <v>0.02676073372100183</v>
+        <v>0.1293968405932841</v>
       </c>
       <c r="Y2">
-        <v>6.439189236739416E-06</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.09752281753884401</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.02533754645004073</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.07110324847690597</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.01386432383404748</v>
+        <v>0.1377023701012055</v>
       </c>
       <c r="AD2">
-        <v>0.01206657479210685</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.06641064519750206</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.01484932583394926</v>
+        <v>0.03261779100174786</v>
       </c>
       <c r="AG2">
-        <v>0.09376942145448151</v>
+        <v>0.005861406087001557</v>
       </c>
       <c r="AH2">
-        <v>0.1269250208463682</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.005388292136044704</v>
+        <v>0.03408704381057606</v>
       </c>
       <c r="AJ2">
-        <v>0.07814996480614671</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.04824145388381484</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.03840161184286973</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.01776020457415272</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.02226805418899286</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.08785198996689773</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.004754058490000327</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.008690163637611764</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.0004274973639512685</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.01078253183051308</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.01225291791796009</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.006465436040293807</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.00937203322076686</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.004680214836418224</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.0005602035817636688</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>7.374172383970492E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.009156575248488161</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.03499359661192599</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.04418122795187616</v>
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DD2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DF2">
+        <v>0</v>
+      </c>
+      <c r="DG2">
+        <v>0</v>
+      </c>
+      <c r="DH2">
+        <v>0</v>
+      </c>
+      <c r="DI2">
+        <v>0</v>
+      </c>
+      <c r="DJ2">
+        <v>0</v>
+      </c>
+      <c r="DK2">
+        <v>0</v>
+      </c>
+      <c r="DL2">
+        <v>0</v>
+      </c>
+      <c r="DM2">
+        <v>0</v>
+      </c>
+      <c r="DN2">
+        <v>0</v>
+      </c>
+      <c r="DO2">
+        <v>0</v>
+      </c>
+      <c r="DP2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:54">
+    <row r="3" spans="1:120">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1015,108 +1606,306 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0.004070361690291984</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.00138550649768411</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.01189019363242804</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.0515694773702213</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.01537697278898596</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0580891595410237</v>
+        <v>0</v>
       </c>
       <c r="AB3">
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.07198121026155618</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.07242562278098751</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.1057895660852112</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.01478079488926347</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.1554988761478363</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.05593077993484522</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.01544410640680691</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.06382675171430199</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.06140169607512612</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.04896541392111434</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.0009696410012279018</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.05085977695741058</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.03497439567273422</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>9.340004725399295E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.008452258785314179</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.01203844997781598</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.01292347318292703</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.01076266820100286</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.007522772633837552</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.002119617125699046</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.0008692764284294111</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.0004654163522778034</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.01626782011212272</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.03325454378426222</v>
+        <v>0.08279475126388069</v>
       </c>
       <c r="BB3">
+        <v>0.0260776689327714</v>
+      </c>
+      <c r="BC3">
+        <v>0.05476350427060886</v>
+      </c>
+      <c r="BD3">
+        <v>0.01676974862357228</v>
+      </c>
+      <c r="BE3">
+        <v>0.0001257822743903865</v>
+      </c>
+      <c r="BF3">
+        <v>0.06127031766943931</v>
+      </c>
+      <c r="BG3">
+        <v>0.03461450891373246</v>
+      </c>
+      <c r="BH3">
+        <v>0.0511035165710061</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0.008882514484762934</v>
+      </c>
+      <c r="BK3">
+        <v>0.002023760669798747</v>
+      </c>
+      <c r="BL3">
+        <v>0.1363248853579712</v>
+      </c>
+      <c r="BM3">
+        <v>0.002802106109731061</v>
+      </c>
+      <c r="BN3">
+        <v>0.006584552865233441</v>
+      </c>
+      <c r="BO3">
+        <v>0.06488198326176499</v>
+      </c>
+      <c r="BP3">
+        <v>0.1208530888990813</v>
+      </c>
+      <c r="BQ3">
+        <v>0.01903915713935794</v>
+      </c>
+      <c r="BR3">
+        <v>7.357919561491898E-05</v>
+      </c>
+      <c r="BS3">
+        <v>0.07202142041094421</v>
+      </c>
+      <c r="BT3">
+        <v>0.01290690479291103</v>
+      </c>
+      <c r="BU3">
+        <v>0.04129686531868358</v>
+      </c>
+      <c r="BV3">
+        <v>0.01397063401917871</v>
+      </c>
+      <c r="BW3">
+        <v>0.001982132247271071</v>
+      </c>
+      <c r="BX3">
+        <v>0.02156408584635573</v>
+      </c>
+      <c r="BY3">
+        <v>0.0008152536378611641</v>
+      </c>
+      <c r="BZ3">
+        <v>0.04888443810575789</v>
+      </c>
+      <c r="CA3">
+        <v>0.006922203843213888</v>
+      </c>
+      <c r="CB3">
+        <v>0.01006219099593282</v>
+      </c>
+      <c r="CC3">
+        <v>0.01945478459865338</v>
+      </c>
+      <c r="CD3">
+        <v>0.01387318274695705</v>
+      </c>
+      <c r="CE3">
+        <v>0.005552944649965298</v>
+      </c>
+      <c r="CF3">
+        <v>0.04170753228359623</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
+        <v>0</v>
+      </c>
+      <c r="CN3">
+        <v>0</v>
+      </c>
+      <c r="CO3">
+        <v>0</v>
+      </c>
+      <c r="CP3">
+        <v>0</v>
+      </c>
+      <c r="CQ3">
+        <v>0</v>
+      </c>
+      <c r="CR3">
+        <v>0</v>
+      </c>
+      <c r="CS3">
+        <v>0</v>
+      </c>
+      <c r="CT3">
+        <v>0</v>
+      </c>
+      <c r="CU3">
+        <v>0</v>
+      </c>
+      <c r="CV3">
+        <v>0</v>
+      </c>
+      <c r="CW3">
+        <v>0</v>
+      </c>
+      <c r="CX3">
+        <v>0</v>
+      </c>
+      <c r="CY3">
+        <v>0</v>
+      </c>
+      <c r="CZ3">
+        <v>0</v>
+      </c>
+      <c r="DA3">
+        <v>0</v>
+      </c>
+      <c r="DB3">
+        <v>0</v>
+      </c>
+      <c r="DC3">
+        <v>0</v>
+      </c>
+      <c r="DD3">
+        <v>0</v>
+      </c>
+      <c r="DE3">
+        <v>0</v>
+      </c>
+      <c r="DF3">
+        <v>0</v>
+      </c>
+      <c r="DG3">
+        <v>0</v>
+      </c>
+      <c r="DH3">
+        <v>0</v>
+      </c>
+      <c r="DI3">
+        <v>0</v>
+      </c>
+      <c r="DJ3">
+        <v>0</v>
+      </c>
+      <c r="DK3">
+        <v>0</v>
+      </c>
+      <c r="DL3">
+        <v>0</v>
+      </c>
+      <c r="DM3">
+        <v>0</v>
+      </c>
+      <c r="DN3">
+        <v>0</v>
+      </c>
+      <c r="DO3">
+        <v>0</v>
+      </c>
+      <c r="DP3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:54">
+    <row r="4" spans="1:120">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1125,100 +1914,100 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.002962048816799575</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.005240170298415911</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.006592178242360464</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.006001318999102906</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.003829073774993878</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.00177193900959741</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0004329086663578019</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.757140723689438E-06</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.000706854830637822</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.001578882667361856</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.002360752927007023</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.002809007433223096</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.003041699984533418</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.003635762850563514</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.004067912742238641</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.004151697616775758</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.004086691693277369</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.003088943984227361</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>3.697439343953219E-05</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0547462374374718</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.03393972924263749</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.03382084352260453</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.1586269792225798</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.009785491997861974</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.1286082008551278</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.043273722503308</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.005240170298415911</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.09906795111195335</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.02679258922612551</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.09937565716598447</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.2503188513442922</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1277,10 +2066,208 @@
       <c r="BB4">
         <v>0</v>
       </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0.04028194093545222</v>
+      </c>
+      <c r="BE4">
+        <v>0.005678865546147982</v>
+      </c>
+      <c r="BF4">
+        <v>0.018827921874932</v>
+      </c>
+      <c r="BG4">
+        <v>0.04805857187503088</v>
+      </c>
+      <c r="BH4">
+        <v>0.01970301421325905</v>
+      </c>
+      <c r="BI4">
+        <v>0.07100970927530093</v>
+      </c>
+      <c r="BJ4">
+        <v>0.09921662947246994</v>
+      </c>
+      <c r="BK4">
+        <v>0.0204012442436974</v>
+      </c>
+      <c r="BL4">
+        <v>0.008460700501381979</v>
+      </c>
+      <c r="BM4">
+        <v>0.01037055926922342</v>
+      </c>
+      <c r="BN4">
+        <v>0.01574001356288102</v>
+      </c>
+      <c r="BO4">
+        <v>0.1117732784729908</v>
+      </c>
+      <c r="BP4">
+        <v>0.02813218076099193</v>
+      </c>
+      <c r="BQ4">
+        <v>0.006901190566173734</v>
+      </c>
+      <c r="BR4">
+        <v>0.01083809874389265</v>
+      </c>
+      <c r="BS4">
+        <v>0.08327757388429191</v>
+      </c>
+      <c r="BT4">
+        <v>0.0569347677994918</v>
+      </c>
+      <c r="BU4">
+        <v>0.0006637815622850193</v>
+      </c>
+      <c r="BV4">
+        <v>0.0580839705119478</v>
+      </c>
+      <c r="BW4">
+        <v>0.06054618692865832</v>
+      </c>
+      <c r="BX4">
+        <v>0.02621641677142395</v>
+      </c>
+      <c r="BY4">
+        <v>0.004731962325119185</v>
+      </c>
+      <c r="BZ4">
+        <v>0.003062425903609657</v>
+      </c>
+      <c r="CA4">
+        <v>0.03917471962247242</v>
+      </c>
+      <c r="CB4">
+        <v>0.003563212693778283</v>
+      </c>
+      <c r="CC4">
+        <v>0.07270331557811406</v>
+      </c>
+      <c r="CD4">
+        <v>0.004845363747937917</v>
+      </c>
+      <c r="CE4">
+        <v>0.005812621851999916</v>
+      </c>
+      <c r="CF4">
+        <v>0.0186019481591121</v>
+      </c>
+      <c r="CG4">
+        <v>0.01001166148166731</v>
+      </c>
+      <c r="CH4">
+        <v>0.02183393795490312</v>
+      </c>
+      <c r="CI4">
+        <v>0.01454221390936157</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <v>0</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CW4">
+        <v>0</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DA4">
+        <v>0</v>
+      </c>
+      <c r="DB4">
+        <v>0</v>
+      </c>
+      <c r="DC4">
+        <v>0</v>
+      </c>
+      <c r="DD4">
+        <v>0</v>
+      </c>
+      <c r="DE4">
+        <v>0</v>
+      </c>
+      <c r="DF4">
+        <v>0</v>
+      </c>
+      <c r="DG4">
+        <v>0</v>
+      </c>
+      <c r="DH4">
+        <v>0</v>
+      </c>
+      <c r="DI4">
+        <v>0</v>
+      </c>
+      <c r="DJ4">
+        <v>0</v>
+      </c>
+      <c r="DK4">
+        <v>0</v>
+      </c>
+      <c r="DL4">
+        <v>0</v>
+      </c>
+      <c r="DM4">
+        <v>0</v>
+      </c>
+      <c r="DN4">
+        <v>0</v>
+      </c>
+      <c r="DO4">
+        <v>0</v>
+      </c>
+      <c r="DP4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:54">
+    <row r="5" spans="1:120">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1340,111 +2327,309 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.001974914927487846</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.02111037533532418</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.02098679850013175</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.01298251498546325</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.07382275749793228</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.02442620781388852</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.023065926692581</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.08882088166135585</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.07746555952469127</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.01399142120297737</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.02300215846576873</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.09517835544519912</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.101243845919971</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.003321760565988702</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.05060891450902021</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.09663017978018076</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.07198642913873646</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.03642814516076688</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.004423269426409329</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.01122248939866165</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.04697415105743921</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.04797928806147121</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.02216953370996013</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.008554713978499402</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.004876965536751043</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>2.004079504826778E-05</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.002717109668139863</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.003842492359355154</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.003243241453158824</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.00229288153965913</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.00219571749140808</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.002440958396573343</v>
+        <v>0.06223329410731281</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>0.01192188622231795</v>
       </c>
       <c r="BB5">
+        <v>0.05822344120820674</v>
+      </c>
+      <c r="BC5">
+        <v>0.02778882175566081</v>
+      </c>
+      <c r="BD5">
+        <v>0.0003109467828768235</v>
+      </c>
+      <c r="BE5">
+        <v>0.0213150414664827</v>
+      </c>
+      <c r="BF5">
+        <v>0.03633210621176354</v>
+      </c>
+      <c r="BG5">
+        <v>0.0741239847119728</v>
+      </c>
+      <c r="BH5">
+        <v>0.001804111318501534</v>
+      </c>
+      <c r="BI5">
+        <v>0.0001666350363081684</v>
+      </c>
+      <c r="BJ5">
+        <v>0.0173631862968679</v>
+      </c>
+      <c r="BK5">
+        <v>0.08456324697693852</v>
+      </c>
+      <c r="BL5">
+        <v>0.03199123558954704</v>
+      </c>
+      <c r="BM5">
+        <v>0.01738433527162077</v>
+      </c>
+      <c r="BN5">
+        <v>0.006036348976099679</v>
+      </c>
+      <c r="BO5">
+        <v>0.2109341631716255</v>
+      </c>
+      <c r="BP5">
+        <v>0.03037312323307492</v>
+      </c>
+      <c r="BQ5">
+        <v>0.003838316907320796</v>
+      </c>
+      <c r="BR5">
+        <v>0.0594694994211942</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0.03083530590635921</v>
+      </c>
+      <c r="BU5">
+        <v>0.05686755592600036</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0.0006941260914752585</v>
+      </c>
+      <c r="BX5">
+        <v>5.173083821692096E-05</v>
+      </c>
+      <c r="BY5">
+        <v>0.02536487020837458</v>
+      </c>
+      <c r="BZ5">
+        <v>0.04622847908064279</v>
+      </c>
+      <c r="CA5">
+        <v>0.004545190107272311</v>
+      </c>
+      <c r="CB5">
+        <v>0.04440463523723288</v>
+      </c>
+      <c r="CC5">
+        <v>0.01384771444277978</v>
+      </c>
+      <c r="CD5">
+        <v>0.01027830472670577</v>
+      </c>
+      <c r="CE5">
+        <v>0.01070836276924663</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>0</v>
+      </c>
+      <c r="CO5">
+        <v>0</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CU5">
+        <v>0</v>
+      </c>
+      <c r="CV5">
+        <v>0</v>
+      </c>
+      <c r="CW5">
+        <v>0</v>
+      </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CY5">
+        <v>0</v>
+      </c>
+      <c r="CZ5">
+        <v>0</v>
+      </c>
+      <c r="DA5">
+        <v>0</v>
+      </c>
+      <c r="DB5">
+        <v>0</v>
+      </c>
+      <c r="DC5">
+        <v>0</v>
+      </c>
+      <c r="DD5">
+        <v>0</v>
+      </c>
+      <c r="DE5">
+        <v>0</v>
+      </c>
+      <c r="DF5">
+        <v>0</v>
+      </c>
+      <c r="DG5">
+        <v>0</v>
+      </c>
+      <c r="DH5">
+        <v>0</v>
+      </c>
+      <c r="DI5">
+        <v>0</v>
+      </c>
+      <c r="DJ5">
+        <v>0</v>
+      </c>
+      <c r="DK5">
+        <v>0</v>
+      </c>
+      <c r="DL5">
+        <v>0</v>
+      </c>
+      <c r="DM5">
+        <v>0</v>
+      </c>
+      <c r="DN5">
+        <v>0</v>
+      </c>
+      <c r="DO5">
+        <v>0</v>
+      </c>
+      <c r="DP5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:54">
+    <row r="6" spans="1:120">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1510,100 +2695,298 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0.01200321022483816</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.04784862221273524</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.005308122447677948</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.1031899280219321</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.01243293371892557</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.07883973097323917</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.05639149277480522</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.003838651110752495</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>7.515623800112163E-05</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.0009399132990350377</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.06609653211387688</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.1224048099169906</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.01011932723803051</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.0574833596462637</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.1315143007087712</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.08450773540693024</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.01961744537826913</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.0005267205747043182</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.03521404202688452</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.0605801523925323</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.03854048518743054</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.01865519981267415</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.01049144429048976</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.005510518859313478</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>4.731599723167332E-05</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.002300610272710966</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.00396637280363975</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.002880105808420561</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.001651455779294105</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.00125787125471635</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.002399758006283721</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.003366675502599433</v>
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0.03414116944387318</v>
+      </c>
+      <c r="CL6">
+        <v>0.03485076231654485</v>
+      </c>
+      <c r="CM6">
+        <v>0.0708127846349809</v>
+      </c>
+      <c r="CN6">
+        <v>0.008341107547526934</v>
+      </c>
+      <c r="CO6">
+        <v>0.0237706406275435</v>
+      </c>
+      <c r="CP6">
+        <v>0.07223193386147592</v>
+      </c>
+      <c r="CQ6">
+        <v>0.04755650349671517</v>
+      </c>
+      <c r="CR6">
+        <v>0.002163415560008347</v>
+      </c>
+      <c r="CS6">
+        <v>0.003272980388609873</v>
+      </c>
+      <c r="CT6">
+        <v>0.002210449036875781</v>
+      </c>
+      <c r="CU6">
+        <v>0.02922911775623309</v>
+      </c>
+      <c r="CV6">
+        <v>0.0964895910359601</v>
+      </c>
+      <c r="CW6">
+        <v>0.01554962948319399</v>
+      </c>
+      <c r="CX6">
+        <v>0.002998753539667069</v>
+      </c>
+      <c r="CY6">
+        <v>0.159323181352912</v>
+      </c>
+      <c r="CZ6">
+        <v>0.04851680556692471</v>
+      </c>
+      <c r="DA6">
+        <v>0.0006420258285294097</v>
+      </c>
+      <c r="DB6">
+        <v>5.562096926228956E-05</v>
+      </c>
+      <c r="DC6">
+        <v>0.03666652936448032</v>
+      </c>
+      <c r="DD6">
+        <v>0.02850530687861258</v>
+      </c>
+      <c r="DE6">
+        <v>0.0757026632952115</v>
+      </c>
+      <c r="DF6">
+        <v>0.009232746635652144</v>
+      </c>
+      <c r="DG6">
+        <v>0.006377876172750108</v>
+      </c>
+      <c r="DH6">
+        <v>0.001424565490269618</v>
+      </c>
+      <c r="DI6">
+        <v>0.01055010054627023</v>
+      </c>
+      <c r="DJ6">
+        <v>0.06608272219339098</v>
+      </c>
+      <c r="DK6">
+        <v>0.01216010822977919</v>
+      </c>
+      <c r="DL6">
+        <v>0.002655003811491312</v>
+      </c>
+      <c r="DM6">
+        <v>0.03889109692165833</v>
+      </c>
+      <c r="DN6">
+        <v>0.02040623216882857</v>
+      </c>
+      <c r="DO6">
+        <v>4.902172121872563E-05</v>
+      </c>
+      <c r="DP6">
+        <v>0.03913955412354935</v>
       </c>
     </row>
   </sheetData>
@@ -1613,15 +2996,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB6"/>
+  <dimension ref="A1:DP6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:54">
+    <row r="1" spans="1:120">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1782,10 +3165,208 @@
       <c r="BB1" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
-    <row r="2" spans="1:54">
+    <row r="2" spans="1:120">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1794,162 +3375,360 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.02279270755401583</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.1096761252774405</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.1797968578076769</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.1797968578076769</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.1797968578076769</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1797968578076769</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2138096320240045</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2309339285831238</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2309339285831238</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2309339285831238</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2444634919117406</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.3211734394444248</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.3211734394444248</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.3211734394444248</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.5817006001001401</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.6125893229491318</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.6125893229491318</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.6125893229491318</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.6389537465479147</v>
       </c>
       <c r="W2">
-        <v>0.006998500362642747</v>
+        <v>0.660334548406185</v>
       </c>
       <c r="X2">
-        <v>0.03375923408364458</v>
+        <v>0.789731388999469</v>
       </c>
       <c r="Y2">
-        <v>0.03376567327288132</v>
+        <v>0.789731388999469</v>
       </c>
       <c r="Z2">
-        <v>0.1312884908117253</v>
+        <v>0.789731388999469</v>
       </c>
       <c r="AA2">
-        <v>0.1566260372617661</v>
+        <v>0.789731388999469</v>
       </c>
       <c r="AB2">
-        <v>0.227729285738672</v>
+        <v>0.789731388999469</v>
       </c>
       <c r="AC2">
-        <v>0.2415936095727195</v>
+        <v>0.9274337591006745</v>
       </c>
       <c r="AD2">
-        <v>0.2536601843648264</v>
+        <v>0.9274337591006745</v>
       </c>
       <c r="AE2">
-        <v>0.3200708295623285</v>
+        <v>0.9274337591006745</v>
       </c>
       <c r="AF2">
-        <v>0.3349201553962777</v>
+        <v>0.9600515501024224</v>
       </c>
       <c r="AG2">
-        <v>0.4286895768507593</v>
+        <v>0.965912956189424</v>
       </c>
       <c r="AH2">
-        <v>0.5556145976971274</v>
+        <v>0.965912956189424</v>
       </c>
       <c r="AI2">
-        <v>0.5610028898331721</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0.6391528546393188</v>
+        <v>1</v>
       </c>
       <c r="AK2">
-        <v>0.6873943085231337</v>
+        <v>1</v>
       </c>
       <c r="AL2">
-        <v>0.7257959203660034</v>
+        <v>1</v>
       </c>
       <c r="AM2">
-        <v>0.7435561249401561</v>
+        <v>1</v>
       </c>
       <c r="AN2">
-        <v>0.7658241791291489</v>
+        <v>1</v>
       </c>
       <c r="AO2">
-        <v>0.8536761690960466</v>
+        <v>1</v>
       </c>
       <c r="AP2">
-        <v>0.8584302275860469</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
-        <v>0.8671203912236587</v>
+        <v>1</v>
       </c>
       <c r="AR2">
-        <v>0.86754788858761</v>
+        <v>1</v>
       </c>
       <c r="AS2">
-        <v>0.878330420418123</v>
+        <v>1</v>
       </c>
       <c r="AT2">
-        <v>0.8905833383360832</v>
+        <v>1</v>
       </c>
       <c r="AU2">
-        <v>0.897048774376377</v>
+        <v>1</v>
       </c>
       <c r="AV2">
-        <v>0.9064208075971438</v>
+        <v>1</v>
       </c>
       <c r="AW2">
-        <v>0.9111010224335621</v>
+        <v>1</v>
       </c>
       <c r="AX2">
-        <v>0.9116612260153257</v>
+        <v>1</v>
       </c>
       <c r="AY2">
-        <v>0.9116686001877097</v>
+        <v>1</v>
       </c>
       <c r="AZ2">
-        <v>0.9208251754361978</v>
+        <v>1</v>
       </c>
       <c r="BA2">
-        <v>0.9558187720481238</v>
+        <v>1</v>
       </c>
       <c r="BB2">
         <v>1</v>
       </c>
+      <c r="BC2">
+        <v>1</v>
+      </c>
+      <c r="BD2">
+        <v>1</v>
+      </c>
+      <c r="BE2">
+        <v>1</v>
+      </c>
+      <c r="BF2">
+        <v>1</v>
+      </c>
+      <c r="BG2">
+        <v>1</v>
+      </c>
+      <c r="BH2">
+        <v>1</v>
+      </c>
+      <c r="BI2">
+        <v>1</v>
+      </c>
+      <c r="BJ2">
+        <v>1</v>
+      </c>
+      <c r="BK2">
+        <v>1</v>
+      </c>
+      <c r="BL2">
+        <v>1</v>
+      </c>
+      <c r="BM2">
+        <v>1</v>
+      </c>
+      <c r="BN2">
+        <v>1</v>
+      </c>
+      <c r="BO2">
+        <v>1</v>
+      </c>
+      <c r="BP2">
+        <v>1</v>
+      </c>
+      <c r="BQ2">
+        <v>1</v>
+      </c>
+      <c r="BR2">
+        <v>1</v>
+      </c>
+      <c r="BS2">
+        <v>1</v>
+      </c>
+      <c r="BT2">
+        <v>1</v>
+      </c>
+      <c r="BU2">
+        <v>1</v>
+      </c>
+      <c r="BV2">
+        <v>1</v>
+      </c>
+      <c r="BW2">
+        <v>1</v>
+      </c>
+      <c r="BX2">
+        <v>1</v>
+      </c>
+      <c r="BY2">
+        <v>1</v>
+      </c>
+      <c r="BZ2">
+        <v>1</v>
+      </c>
+      <c r="CA2">
+        <v>1</v>
+      </c>
+      <c r="CB2">
+        <v>1</v>
+      </c>
+      <c r="CC2">
+        <v>1</v>
+      </c>
+      <c r="CD2">
+        <v>1</v>
+      </c>
+      <c r="CE2">
+        <v>1</v>
+      </c>
+      <c r="CF2">
+        <v>1</v>
+      </c>
+      <c r="CG2">
+        <v>1</v>
+      </c>
+      <c r="CH2">
+        <v>1</v>
+      </c>
+      <c r="CI2">
+        <v>1</v>
+      </c>
+      <c r="CJ2">
+        <v>1</v>
+      </c>
+      <c r="CK2">
+        <v>1</v>
+      </c>
+      <c r="CL2">
+        <v>1</v>
+      </c>
+      <c r="CM2">
+        <v>1</v>
+      </c>
+      <c r="CN2">
+        <v>1</v>
+      </c>
+      <c r="CO2">
+        <v>1</v>
+      </c>
+      <c r="CP2">
+        <v>1</v>
+      </c>
+      <c r="CQ2">
+        <v>1</v>
+      </c>
+      <c r="CR2">
+        <v>1</v>
+      </c>
+      <c r="CS2">
+        <v>1</v>
+      </c>
+      <c r="CT2">
+        <v>1</v>
+      </c>
+      <c r="CU2">
+        <v>1</v>
+      </c>
+      <c r="CV2">
+        <v>1</v>
+      </c>
+      <c r="CW2">
+        <v>1</v>
+      </c>
+      <c r="CX2">
+        <v>1</v>
+      </c>
+      <c r="CY2">
+        <v>1</v>
+      </c>
+      <c r="CZ2">
+        <v>1</v>
+      </c>
+      <c r="DA2">
+        <v>1</v>
+      </c>
+      <c r="DB2">
+        <v>1</v>
+      </c>
+      <c r="DC2">
+        <v>1</v>
+      </c>
+      <c r="DD2">
+        <v>1</v>
+      </c>
+      <c r="DE2">
+        <v>1</v>
+      </c>
+      <c r="DF2">
+        <v>1</v>
+      </c>
+      <c r="DG2">
+        <v>1</v>
+      </c>
+      <c r="DH2">
+        <v>1</v>
+      </c>
+      <c r="DI2">
+        <v>1</v>
+      </c>
+      <c r="DJ2">
+        <v>1</v>
+      </c>
+      <c r="DK2">
+        <v>1</v>
+      </c>
+      <c r="DL2">
+        <v>1</v>
+      </c>
+      <c r="DM2">
+        <v>1</v>
+      </c>
+      <c r="DN2">
+        <v>1</v>
+      </c>
+      <c r="DO2">
+        <v>1</v>
+      </c>
+      <c r="DP2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:54">
+    <row r="3" spans="1:120">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2012,108 +3791,306 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0.004070361690291984</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.005455868187976094</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.01734606182040414</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.06891553919062543</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.08429251197961139</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.1423816715206351</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.1423816715206351</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.2143628817821913</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.2867885045631788</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.39257807064839</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.4073588655376534</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.5628577416854897</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.6187885216203349</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.6342326280271419</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.6980593797414438</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.75946107581657</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.8084264897376843</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.8093961307389121</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.8602559076963228</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.895230303369057</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.895323703416311</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.9037759622016251</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.9037759622016251</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.9158144121794412</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.9287378853623682</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.9395005535633711</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.9470233261972087</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.9491429433229078</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.9500122197513372</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.950477636103615</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.9667454562157377</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.9999999999999999</v>
+        <v>0.08279475126388069</v>
       </c>
       <c r="BB3">
-        <v>0.9999999999999999</v>
+        <v>0.1088724201966521</v>
+      </c>
+      <c r="BC3">
+        <v>0.1636359244672609</v>
+      </c>
+      <c r="BD3">
+        <v>0.1804056730908332</v>
+      </c>
+      <c r="BE3">
+        <v>0.1805314553652236</v>
+      </c>
+      <c r="BF3">
+        <v>0.2418017730346629</v>
+      </c>
+      <c r="BG3">
+        <v>0.2764162819483953</v>
+      </c>
+      <c r="BH3">
+        <v>0.3275197985194014</v>
+      </c>
+      <c r="BI3">
+        <v>0.3275197985194014</v>
+      </c>
+      <c r="BJ3">
+        <v>0.3364023130041644</v>
+      </c>
+      <c r="BK3">
+        <v>0.3384260736739632</v>
+      </c>
+      <c r="BL3">
+        <v>0.4747509590319343</v>
+      </c>
+      <c r="BM3">
+        <v>0.4775530651416654</v>
+      </c>
+      <c r="BN3">
+        <v>0.4841376180068989</v>
+      </c>
+      <c r="BO3">
+        <v>0.5490196012686639</v>
+      </c>
+      <c r="BP3">
+        <v>0.6698726901677452</v>
+      </c>
+      <c r="BQ3">
+        <v>0.6889118473071032</v>
+      </c>
+      <c r="BR3">
+        <v>0.6889854265027181</v>
+      </c>
+      <c r="BS3">
+        <v>0.7610068469136623</v>
+      </c>
+      <c r="BT3">
+        <v>0.7739137517065733</v>
+      </c>
+      <c r="BU3">
+        <v>0.8152106170252569</v>
+      </c>
+      <c r="BV3">
+        <v>0.8291812510444356</v>
+      </c>
+      <c r="BW3">
+        <v>0.8311633832917067</v>
+      </c>
+      <c r="BX3">
+        <v>0.8527274691380624</v>
+      </c>
+      <c r="BY3">
+        <v>0.8535427227759236</v>
+      </c>
+      <c r="BZ3">
+        <v>0.9024271608816815</v>
+      </c>
+      <c r="CA3">
+        <v>0.9093493647248954</v>
+      </c>
+      <c r="CB3">
+        <v>0.9194115557208282</v>
+      </c>
+      <c r="CC3">
+        <v>0.9388663403194816</v>
+      </c>
+      <c r="CD3">
+        <v>0.9527395230664386</v>
+      </c>
+      <c r="CE3">
+        <v>0.9582924677164039</v>
+      </c>
+      <c r="CF3">
+        <v>1</v>
+      </c>
+      <c r="CG3">
+        <v>1</v>
+      </c>
+      <c r="CH3">
+        <v>1</v>
+      </c>
+      <c r="CI3">
+        <v>1</v>
+      </c>
+      <c r="CJ3">
+        <v>1</v>
+      </c>
+      <c r="CK3">
+        <v>1</v>
+      </c>
+      <c r="CL3">
+        <v>1</v>
+      </c>
+      <c r="CM3">
+        <v>1</v>
+      </c>
+      <c r="CN3">
+        <v>1</v>
+      </c>
+      <c r="CO3">
+        <v>1</v>
+      </c>
+      <c r="CP3">
+        <v>1</v>
+      </c>
+      <c r="CQ3">
+        <v>1</v>
+      </c>
+      <c r="CR3">
+        <v>1</v>
+      </c>
+      <c r="CS3">
+        <v>1</v>
+      </c>
+      <c r="CT3">
+        <v>1</v>
+      </c>
+      <c r="CU3">
+        <v>1</v>
+      </c>
+      <c r="CV3">
+        <v>1</v>
+      </c>
+      <c r="CW3">
+        <v>1</v>
+      </c>
+      <c r="CX3">
+        <v>1</v>
+      </c>
+      <c r="CY3">
+        <v>1</v>
+      </c>
+      <c r="CZ3">
+        <v>1</v>
+      </c>
+      <c r="DA3">
+        <v>1</v>
+      </c>
+      <c r="DB3">
+        <v>1</v>
+      </c>
+      <c r="DC3">
+        <v>1</v>
+      </c>
+      <c r="DD3">
+        <v>1</v>
+      </c>
+      <c r="DE3">
+        <v>1</v>
+      </c>
+      <c r="DF3">
+        <v>1</v>
+      </c>
+      <c r="DG3">
+        <v>1</v>
+      </c>
+      <c r="DH3">
+        <v>1</v>
+      </c>
+      <c r="DI3">
+        <v>1</v>
+      </c>
+      <c r="DJ3">
+        <v>1</v>
+      </c>
+      <c r="DK3">
+        <v>1</v>
+      </c>
+      <c r="DL3">
+        <v>1</v>
+      </c>
+      <c r="DM3">
+        <v>1</v>
+      </c>
+      <c r="DN3">
+        <v>1</v>
+      </c>
+      <c r="DO3">
+        <v>1</v>
+      </c>
+      <c r="DP3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:54">
+    <row r="4" spans="1:120">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2122,162 +4099,360 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.002962048816799575</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.008202219115215487</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.01479439735757595</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.02079571635667886</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.02462479013167273</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.02639672914127014</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02682963780762794</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.02682963780762794</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.02683839494835163</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.02754524977898945</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.02912413244635131</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.03148488537335833</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.03429389280658143</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.03733559279111485</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.04097135564167836</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.045039268383917</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.04919096600069276</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.05327765769397013</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.05636660167819749</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.05640357607163703</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.1111498135091088</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.1450895427517463</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.1789103862743509</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.3375373654969307</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.3473228574947927</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.4759310583499206</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.5192047808532285</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.5244449511516445</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.6235129022635978</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6503054914897233</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.7496811486557078</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0.04028194093545222</v>
+      </c>
+      <c r="BE4">
+        <v>0.0459608064816002</v>
+      </c>
+      <c r="BF4">
+        <v>0.0647887283565322</v>
+      </c>
+      <c r="BG4">
+        <v>0.1128473002315631</v>
+      </c>
+      <c r="BH4">
+        <v>0.1325503144448221</v>
+      </c>
+      <c r="BI4">
+        <v>0.2035600237201231</v>
+      </c>
+      <c r="BJ4">
+        <v>0.302776653192593</v>
+      </c>
+      <c r="BK4">
+        <v>0.3231778974362904</v>
+      </c>
+      <c r="BL4">
+        <v>0.3316385979376724</v>
+      </c>
+      <c r="BM4">
+        <v>0.3420091572068958</v>
+      </c>
+      <c r="BN4">
+        <v>0.3577491707697768</v>
+      </c>
+      <c r="BO4">
+        <v>0.4695224492427676</v>
+      </c>
+      <c r="BP4">
+        <v>0.4976546300037596</v>
+      </c>
+      <c r="BQ4">
+        <v>0.5045558205699333</v>
+      </c>
+      <c r="BR4">
+        <v>0.5153939193138259</v>
+      </c>
+      <c r="BS4">
+        <v>0.5986714931981179</v>
+      </c>
+      <c r="BT4">
+        <v>0.6556062609976097</v>
+      </c>
+      <c r="BU4">
+        <v>0.6562700425598946</v>
+      </c>
+      <c r="BV4">
+        <v>0.7143540130718424</v>
+      </c>
+      <c r="BW4">
+        <v>0.7749002000005007</v>
+      </c>
+      <c r="BX4">
+        <v>0.8011166167719247</v>
+      </c>
+      <c r="BY4">
+        <v>0.8058485790970439</v>
+      </c>
+      <c r="BZ4">
+        <v>0.8089110050006535</v>
+      </c>
+      <c r="CA4">
+        <v>0.8480857246231259</v>
+      </c>
+      <c r="CB4">
+        <v>0.8516489373169042</v>
+      </c>
+      <c r="CC4">
+        <v>0.9243522528950182</v>
+      </c>
+      <c r="CD4">
+        <v>0.9291976166429561</v>
+      </c>
+      <c r="CE4">
+        <v>0.935010238494956</v>
+      </c>
+      <c r="CF4">
+        <v>0.9536121866540681</v>
+      </c>
+      <c r="CG4">
+        <v>0.9636238481357354</v>
+      </c>
+      <c r="CH4">
+        <v>0.9854577860906385</v>
+      </c>
+      <c r="CI4">
+        <v>1</v>
+      </c>
+      <c r="CJ4">
+        <v>1</v>
+      </c>
+      <c r="CK4">
+        <v>1</v>
+      </c>
+      <c r="CL4">
+        <v>1</v>
+      </c>
+      <c r="CM4">
+        <v>1</v>
+      </c>
+      <c r="CN4">
+        <v>1</v>
+      </c>
+      <c r="CO4">
+        <v>1</v>
+      </c>
+      <c r="CP4">
+        <v>1</v>
+      </c>
+      <c r="CQ4">
+        <v>1</v>
+      </c>
+      <c r="CR4">
+        <v>1</v>
+      </c>
+      <c r="CS4">
+        <v>1</v>
+      </c>
+      <c r="CT4">
+        <v>1</v>
+      </c>
+      <c r="CU4">
+        <v>1</v>
+      </c>
+      <c r="CV4">
+        <v>1</v>
+      </c>
+      <c r="CW4">
+        <v>1</v>
+      </c>
+      <c r="CX4">
+        <v>1</v>
+      </c>
+      <c r="CY4">
+        <v>1</v>
+      </c>
+      <c r="CZ4">
+        <v>1</v>
+      </c>
+      <c r="DA4">
+        <v>1</v>
+      </c>
+      <c r="DB4">
+        <v>1</v>
+      </c>
+      <c r="DC4">
+        <v>1</v>
+      </c>
+      <c r="DD4">
+        <v>1</v>
+      </c>
+      <c r="DE4">
+        <v>1</v>
+      </c>
+      <c r="DF4">
+        <v>1</v>
+      </c>
+      <c r="DG4">
+        <v>1</v>
+      </c>
+      <c r="DH4">
+        <v>1</v>
+      </c>
+      <c r="DI4">
+        <v>1</v>
+      </c>
+      <c r="DJ4">
+        <v>1</v>
+      </c>
+      <c r="DK4">
+        <v>1</v>
+      </c>
+      <c r="DL4">
+        <v>1</v>
+      </c>
+      <c r="DM4">
+        <v>1</v>
+      </c>
+      <c r="DN4">
+        <v>1</v>
+      </c>
+      <c r="DO4">
+        <v>1</v>
+      </c>
+      <c r="DP4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:54">
+    <row r="5" spans="1:120">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2337,111 +4512,309 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.001974914927487846</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.02308529026281202</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.04407208876294377</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.05705460374840703</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.1308773612463393</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.1553035690602278</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.1783694957528088</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.2671903774141647</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.3446559369388559</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.3586473581418333</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.381649516607602</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.4768278720528012</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.5780717179727722</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.5813934785387609</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.6320023930477811</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.7286325728279618</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.8006190019666982</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.8370471471274651</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.8414704165538744</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.8526929059525361</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.8996670570099753</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.9476463450714465</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.9698158787814066</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.978370592759906</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.983247558296657</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.9832675990917052</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.9859847087598451</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.9898272011192003</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.9930704425723591</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.9953633241120182</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.9975590416034263</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.9999999999999997</v>
+        <v>0.06223329410731281</v>
       </c>
       <c r="BA5">
-        <v>0.9999999999999997</v>
+        <v>0.07415518032963075</v>
       </c>
       <c r="BB5">
-        <v>0.9999999999999997</v>
+        <v>0.1323786215378375</v>
+      </c>
+      <c r="BC5">
+        <v>0.1601674432934983</v>
+      </c>
+      <c r="BD5">
+        <v>0.1604783900763751</v>
+      </c>
+      <c r="BE5">
+        <v>0.1817934315428578</v>
+      </c>
+      <c r="BF5">
+        <v>0.2181255377546213</v>
+      </c>
+      <c r="BG5">
+        <v>0.2922495224665941</v>
+      </c>
+      <c r="BH5">
+        <v>0.2940536337850957</v>
+      </c>
+      <c r="BI5">
+        <v>0.2942202688214038</v>
+      </c>
+      <c r="BJ5">
+        <v>0.3115834551182717</v>
+      </c>
+      <c r="BK5">
+        <v>0.3961467020952102</v>
+      </c>
+      <c r="BL5">
+        <v>0.4281379376847573</v>
+      </c>
+      <c r="BM5">
+        <v>0.445522272956378</v>
+      </c>
+      <c r="BN5">
+        <v>0.4515586219324777</v>
+      </c>
+      <c r="BO5">
+        <v>0.6624927851041031</v>
+      </c>
+      <c r="BP5">
+        <v>0.6928659083371781</v>
+      </c>
+      <c r="BQ5">
+        <v>0.6967042252444989</v>
+      </c>
+      <c r="BR5">
+        <v>0.7561737246656931</v>
+      </c>
+      <c r="BS5">
+        <v>0.7561737246656931</v>
+      </c>
+      <c r="BT5">
+        <v>0.7870090305720523</v>
+      </c>
+      <c r="BU5">
+        <v>0.8438765864980526</v>
+      </c>
+      <c r="BV5">
+        <v>0.8438765864980526</v>
+      </c>
+      <c r="BW5">
+        <v>0.8445707125895279</v>
+      </c>
+      <c r="BX5">
+        <v>0.8446224434277448</v>
+      </c>
+      <c r="BY5">
+        <v>0.8699873136361194</v>
+      </c>
+      <c r="BZ5">
+        <v>0.9162157927167621</v>
+      </c>
+      <c r="CA5">
+        <v>0.9207609828240344</v>
+      </c>
+      <c r="CB5">
+        <v>0.9651656180612673</v>
+      </c>
+      <c r="CC5">
+        <v>0.9790133325040471</v>
+      </c>
+      <c r="CD5">
+        <v>0.9892916372307529</v>
+      </c>
+      <c r="CE5">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="CF5">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="CG5">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="CH5">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="CI5">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="CJ5">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="CK5">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="CL5">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="CM5">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="CN5">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="CO5">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="CP5">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="CQ5">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="CR5">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="CS5">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="CT5">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="CU5">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="CV5">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="CW5">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="CX5">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="CY5">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="CZ5">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="DA5">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="DB5">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="DC5">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="DD5">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="DE5">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="DF5">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="DG5">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="DH5">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="DI5">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="DJ5">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="DK5">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="DL5">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="DM5">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="DN5">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="DO5">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="DP5">
+        <v>0.9999999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:54">
+    <row r="6" spans="1:120">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2507,99 +4880,297 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0.01200321022483816</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0598518324375734</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.06515995488525135</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.1683498829071834</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.180782816626109</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.2596225475993482</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.3160140403741534</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.3198526914849059</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.319927847722907</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.320867761021942</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.3869642931358189</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.5093691030528096</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.5194884302908401</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.5769717899371039</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.7084860906458751</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.7929938260528053</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.8126112714310745</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.8131379920057787</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.8483520340326632</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.9089321864251956</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.9474726716126262</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.9661278714253003</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.9766193157157901</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.9821298345751036</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.9821771505723352</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.9844777608450462</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.988444133648686</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.9913242394571066</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.9929756952364007</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.994233566491117</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.9966333244974007</v>
+        <v>0</v>
       </c>
       <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0.03414116944387318</v>
+      </c>
+      <c r="CL6">
+        <v>0.06899193176041803</v>
+      </c>
+      <c r="CM6">
+        <v>0.1398047163953989</v>
+      </c>
+      <c r="CN6">
+        <v>0.1481458239429259</v>
+      </c>
+      <c r="CO6">
+        <v>0.1719164645704694</v>
+      </c>
+      <c r="CP6">
+        <v>0.2441483984319453</v>
+      </c>
+      <c r="CQ6">
+        <v>0.2917049019286604</v>
+      </c>
+      <c r="CR6">
+        <v>0.2938683174886688</v>
+      </c>
+      <c r="CS6">
+        <v>0.2971412978772787</v>
+      </c>
+      <c r="CT6">
+        <v>0.2993517469141544</v>
+      </c>
+      <c r="CU6">
+        <v>0.3285808646703876</v>
+      </c>
+      <c r="CV6">
+        <v>0.4250704557063477</v>
+      </c>
+      <c r="CW6">
+        <v>0.4406200851895417</v>
+      </c>
+      <c r="CX6">
+        <v>0.4436188387292087</v>
+      </c>
+      <c r="CY6">
+        <v>0.6029420200821207</v>
+      </c>
+      <c r="CZ6">
+        <v>0.6514588256490454</v>
+      </c>
+      <c r="DA6">
+        <v>0.6521008514775749</v>
+      </c>
+      <c r="DB6">
+        <v>0.6521564724468372</v>
+      </c>
+      <c r="DC6">
+        <v>0.6888230018113175</v>
+      </c>
+      <c r="DD6">
+        <v>0.7173283086899301</v>
+      </c>
+      <c r="DE6">
+        <v>0.7930309719851416</v>
+      </c>
+      <c r="DF6">
+        <v>0.8022637186207937</v>
+      </c>
+      <c r="DG6">
+        <v>0.8086415947935438</v>
+      </c>
+      <c r="DH6">
+        <v>0.8100661602838134</v>
+      </c>
+      <c r="DI6">
+        <v>0.8206162608300837</v>
+      </c>
+      <c r="DJ6">
+        <v>0.8866989830234746</v>
+      </c>
+      <c r="DK6">
+        <v>0.8988590912532538</v>
+      </c>
+      <c r="DL6">
+        <v>0.9015140950647451</v>
+      </c>
+      <c r="DM6">
+        <v>0.9404051919864035</v>
+      </c>
+      <c r="DN6">
+        <v>0.960811424155232</v>
+      </c>
+      <c r="DO6">
+        <v>0.9608604458764507</v>
+      </c>
+      <c r="DP6">
         <v>1</v>
       </c>
     </row>
@@ -2618,302 +5189,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>0.03375923408364458</v>
+        <v>0.1096761252774405</v>
       </c>
       <c r="F2">
-        <v>0.5556145976971274</v>
+        <v>0.5817006001001401</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>600</v>
       </c>
       <c r="I2" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="J2" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="K2" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="L2">
-        <v>307</v>
+        <v>132</v>
       </c>
       <c r="M2">
         <v>600</v>
       </c>
       <c r="N2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="P2" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="E3">
-        <v>0.01734606182040414</v>
+        <v>0.08279475126388069</v>
       </c>
       <c r="F3">
-        <v>0.5628577416854897</v>
+        <v>0.5490196012686639</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>600</v>
       </c>
       <c r="I3" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="J3" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="K3" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="L3">
-        <v>307</v>
+        <v>132</v>
       </c>
       <c r="M3">
         <v>600</v>
       </c>
       <c r="N3" t="s">
-        <v>77</v>
-      </c>
-      <c r="O3" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="P3" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="E4">
-        <v>0.01479439735757595</v>
+        <v>0.1128473002315631</v>
       </c>
       <c r="F4">
-        <v>0.5192047808532285</v>
+        <v>0.5045558205699333</v>
       </c>
       <c r="G4">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>600</v>
       </c>
       <c r="I4" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="J4" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="K4" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="L4">
-        <v>307</v>
+        <v>132</v>
       </c>
       <c r="M4">
         <v>600</v>
       </c>
       <c r="N4" t="s">
-        <v>77</v>
-      </c>
-      <c r="O4" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="P4" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="E5">
-        <v>0.02308529026281202</v>
+        <v>0.1323786215378375</v>
       </c>
       <c r="F5">
-        <v>0.5780717179727722</v>
+        <v>0.6624927851041031</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>600</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="L5">
-        <v>307</v>
+        <v>132</v>
       </c>
       <c r="M5">
         <v>600</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
-      </c>
-      <c r="O5" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="P5" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="E6">
-        <v>0.01200321022483816</v>
+        <v>0.1398047163953989</v>
       </c>
       <c r="F6">
-        <v>0.5093691030528096</v>
+        <v>0.6029420200821207</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>600</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="L6">
-        <v>307</v>
+        <v>132</v>
       </c>
       <c r="M6">
         <v>600</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
-      </c>
-      <c r="O6" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="P6" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2931,302 +5487,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
         <v>23</v>
       </c>
-      <c r="D2">
-        <v>37</v>
-      </c>
       <c r="E2">
-        <v>0.03375923408364458</v>
+        <v>0.1096761252774405</v>
       </c>
       <c r="F2">
-        <v>0.7257959203660034</v>
+        <v>0.789731388999469</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>600</v>
       </c>
       <c r="I2" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="J2" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="K2" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="L2">
-        <v>307</v>
+        <v>132</v>
       </c>
       <c r="M2">
         <v>600</v>
       </c>
       <c r="N2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="P2" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="E3">
-        <v>0.01734606182040414</v>
+        <v>0.08279475126388069</v>
       </c>
       <c r="F3">
-        <v>0.75946107581657</v>
+        <v>0.7610068469136623</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>600</v>
       </c>
       <c r="I3" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="J3" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="K3" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="L3">
-        <v>307</v>
+        <v>132</v>
       </c>
       <c r="M3">
         <v>600</v>
       </c>
       <c r="N3" t="s">
-        <v>77</v>
-      </c>
-      <c r="O3" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="P3" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E4">
-        <v>0.01479439735757595</v>
+        <v>0.1128473002315631</v>
       </c>
       <c r="F4">
-        <v>0.7496811486557078</v>
+        <v>0.7143540130718424</v>
       </c>
       <c r="G4">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>600</v>
       </c>
       <c r="I4" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="J4" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="K4" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="L4">
-        <v>307</v>
+        <v>132</v>
       </c>
       <c r="M4">
         <v>600</v>
       </c>
       <c r="N4" t="s">
-        <v>77</v>
-      </c>
-      <c r="O4" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="P4" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="E5">
-        <v>0.02308529026281202</v>
+        <v>0.1323786215378375</v>
       </c>
       <c r="F5">
-        <v>0.7286325728279618</v>
+        <v>0.7561737246656931</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>600</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="L5">
-        <v>307</v>
+        <v>132</v>
       </c>
       <c r="M5">
         <v>600</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
-      </c>
-      <c r="O5" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="P5" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="D6">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="E6">
-        <v>0.01200321022483816</v>
+        <v>0.1398047163953989</v>
       </c>
       <c r="F6">
-        <v>0.7084860906458751</v>
+        <v>0.7173283086899301</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>600</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="L6">
-        <v>307</v>
+        <v>132</v>
       </c>
       <c r="M6">
         <v>600</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
-      </c>
-      <c r="O6" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="P6" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3244,302 +5785,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E2">
-        <v>0.03375923408364458</v>
+        <v>0.1096761252774405</v>
       </c>
       <c r="F2">
-        <v>0.8536761690960466</v>
+        <v>0.9274337591006745</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H2">
         <v>600</v>
       </c>
       <c r="I2" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="J2" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="K2" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="L2">
-        <v>307</v>
+        <v>132</v>
       </c>
       <c r="M2">
         <v>600</v>
       </c>
       <c r="N2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="P2" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="D3">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="E3">
-        <v>0.01734606182040414</v>
+        <v>0.08279475126388069</v>
       </c>
       <c r="F3">
-        <v>0.8084264897376843</v>
+        <v>0.8152106170252569</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>600</v>
       </c>
       <c r="I3" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="J3" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="K3" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="L3">
-        <v>307</v>
+        <v>132</v>
       </c>
       <c r="M3">
         <v>600</v>
       </c>
       <c r="N3" t="s">
-        <v>77</v>
-      </c>
-      <c r="O3" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="P3" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="E4">
-        <v>0.01479439735757595</v>
+        <v>0.1128473002315631</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.8011166167719247</v>
       </c>
       <c r="G4">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>600</v>
       </c>
       <c r="I4" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="J4" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="K4" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="L4">
-        <v>307</v>
+        <v>132</v>
       </c>
       <c r="M4">
         <v>600</v>
       </c>
       <c r="N4" t="s">
-        <v>77</v>
-      </c>
-      <c r="O4" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="P4" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E5">
-        <v>0.02308529026281202</v>
+        <v>0.1323786215378375</v>
       </c>
       <c r="F5">
-        <v>0.8006190019666982</v>
+        <v>0.8438765864980526</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>600</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="L5">
-        <v>307</v>
+        <v>132</v>
       </c>
       <c r="M5">
         <v>600</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
-      </c>
-      <c r="O5" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="P5" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="D6">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="E6">
-        <v>0.01200321022483816</v>
+        <v>0.1398047163953989</v>
       </c>
       <c r="F6">
-        <v>0.8126112714310745</v>
+        <v>0.8022637186207937</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>600</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="L6">
-        <v>307</v>
+        <v>132</v>
       </c>
       <c r="M6">
         <v>600</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
-      </c>
-      <c r="O6" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="P6" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3557,72 +6083,72 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="E2">
-        <v>0.03375923408364458</v>
+        <v>0.1096761252774405</v>
       </c>
       <c r="F2">
-        <v>0.9064208075971438</v>
+        <v>0.9274337591006745</v>
       </c>
       <c r="G2">
         <v>24</v>
@@ -3631,228 +6157,213 @@
         <v>600</v>
       </c>
       <c r="I2" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="J2" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="K2" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="L2">
-        <v>307</v>
+        <v>132</v>
       </c>
       <c r="M2">
         <v>600</v>
       </c>
       <c r="N2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="P2" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="D3">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="E3">
-        <v>0.01734606182040414</v>
+        <v>0.08279475126388069</v>
       </c>
       <c r="F3">
-        <v>0.9037759622016251</v>
+        <v>0.9024271608816815</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H3">
         <v>600</v>
       </c>
       <c r="I3" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="J3" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="K3" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="L3">
-        <v>307</v>
+        <v>132</v>
       </c>
       <c r="M3">
         <v>600</v>
       </c>
       <c r="N3" t="s">
-        <v>77</v>
-      </c>
-      <c r="O3" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="P3" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="E4">
-        <v>0.01479439735757595</v>
+        <v>0.1128473002315631</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.9243522528950182</v>
       </c>
       <c r="G4">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H4">
         <v>600</v>
       </c>
       <c r="I4" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="J4" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="K4" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="L4">
-        <v>307</v>
+        <v>132</v>
       </c>
       <c r="M4">
         <v>600</v>
       </c>
       <c r="N4" t="s">
-        <v>77</v>
-      </c>
-      <c r="O4" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="P4" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="E5">
-        <v>0.02308529026281202</v>
+        <v>0.1323786215378375</v>
       </c>
       <c r="F5">
-        <v>0.9476463450714465</v>
+        <v>0.9162157927167621</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H5">
         <v>600</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="L5">
-        <v>307</v>
+        <v>132</v>
       </c>
       <c r="M5">
         <v>600</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
-      </c>
-      <c r="O5" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="P5" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="D6">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E6">
-        <v>0.01200321022483816</v>
+        <v>0.1398047163953989</v>
       </c>
       <c r="F6">
-        <v>0.9089321864251956</v>
+        <v>0.9015140950647451</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H6">
         <v>600</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="L6">
-        <v>307</v>
+        <v>132</v>
       </c>
       <c r="M6">
         <v>600</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
-      </c>
-      <c r="O6" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="P6" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
